--- a/biology/Zoologie/Criquet_migrateur/Criquet_migrateur.xlsx
+++ b/biology/Zoologie/Criquet_migrateur/Criquet_migrateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Locusta migratoria
 Locusta migratoria, le Criquet migrateur, unique représentant du genre Locusta,  est une espèce d'insectes orthoptères de la famille des Acrididae. Il peut voyager sous forme d'essaims de grande taille, les nuages de criquets, qui peuvent causer d'importants ravages sur la végétation.
@@ -513,9 +525,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique, en Asie et en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique, en Asie et en Europe.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses pullulations périodiques constituent pour ses prédateurs ce que les biologistes appellent une « ressource alimentaire pulsée ».
 </t>
@@ -575,12 +591,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Orthoptera Species File  (25 juillet 2018)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Orthoptera Species File  (25 juillet 2018) :
 Locusta migratoria migratoria (Linnaeus, 1758)
 Locusta migratoria migratorioides (Reiche &amp; Fairmaire, 1849)
-Le nombre de sous-espèces a été réduit à deux en 2012[2].
+Le nombre de sous-espèces a été réduit à deux en 2012.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Le Criquet migrateur et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Riche en protéine, il peut être consommé par l'Homme.
 </t>
